--- a/medicine/Hématologie/Siltuximab/Siltuximab.xlsx
+++ b/medicine/Hématologie/Siltuximab/Siltuximab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le siltuximab est un anticorps monoclonal commercialisé par le laboratoire Janssen dirigé contre l'interleukine 6 (IL-6). Son utilisation a été envisagée pour le traitement des cancers rénaux métastatiques[1], prostatiques[2] et la maladie de Castelman[3].
-Dans le cadre d'un essai clinique de phase I, il a été testé dans le traitement du lymphome malin Non Hodgkinien (LMNH) à cellule de type B (maladie de Castelman)[4].
-On a obtenu des résultats encourageants dans un petit essai pour le traitement du cancer de l'ovaire métastatique[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le siltuximab est un anticorps monoclonal commercialisé par le laboratoire Janssen dirigé contre l'interleukine 6 (IL-6). Son utilisation a été envisagée pour le traitement des cancers rénaux métastatiques, prostatiques et la maladie de Castelman.
+Dans le cadre d'un essai clinique de phase I, il a été testé dans le traitement du lymphome malin Non Hodgkinien (LMNH) à cellule de type B (maladie de Castelman).
+On a obtenu des résultats encourageants dans un petit essai pour le traitement du cancer de l'ovaire métastatique.
 </t>
         </is>
       </c>
